--- a/DesignDocuments/美术/特效、Shader需求表.xlsx
+++ b/DesignDocuments/美术/特效、Shader需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="场景" sheetId="2" r:id="rId1"/>
@@ -15,162 +15,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>场景</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>特效需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Shader需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>圣湖桥</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>参考</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主角</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主角普通攻击刀光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主角地面近战蓄力刀光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>运动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>跑步尘埃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>起跳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">冲刺 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点由连击状态恢复到正常状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>符文光球受到连击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铃铛摇动产生音波</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>铃铛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑挥动刀光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀从插中状态脱离</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物的受击效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮持续攻击怪物的受击效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀普通飞行拖尾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀蓄力攻击飞行拖尾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑刺效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>近战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>远程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>水面倒影</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -203,47 +203,47 @@
       </rPr>
       <t>flecion Shader</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点受到连击最大次数的攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美术素材需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>雾气</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,7 +259,7 @@
       </rPr>
       <t>Reflection</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -275,27 +275,27 @@
       </rPr>
       <t>og</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PlayerSlash_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>包含地面/空中的普通攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -311,11 +311,11 @@
       </rPr>
       <t>nifeFlying_Trail</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>KnifeFlying_Charged_Trail</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,7 +331,7 @@
       </rPr>
       <t>nifeStabing</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -347,11 +347,11 @@
       </rPr>
       <t>nifePulledOut</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>KnifePenetrating</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -367,7 +367,7 @@
       </rPr>
       <t>Floating_Hitting</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -383,7 +383,7 @@
       </rPr>
       <t>unDust</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -399,7 +399,7 @@
       </rPr>
       <t>umpDust</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -415,7 +415,7 @@
       </rPr>
       <t>irJump</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -431,7 +431,7 @@
       </rPr>
       <t>ash</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -447,11 +447,11 @@
       </rPr>
       <t>allBuffer</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>符文光球普通状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -467,19 +467,19 @@
       </rPr>
       <t>eakPoint_Normal</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_RecoverToNormal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -495,7 +495,7 @@
       </rPr>
       <t>oss01_Slash</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -511,7 +511,7 @@
       </rPr>
       <t>oss01_Stab</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -527,51 +527,51 @@
       </rPr>
       <t>onster01_Ringing</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力攻击、怪物受击效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击怪物受击效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物受到近战蓄力攻击的效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>从插刀符上拔出的效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物时留下的效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮在空中时造成多次连续伤害时，在怪物身上的受击效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点以带符文的光球形式呈现</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点在连击状态下受到最后一次攻击时产生的一个额外特效，告诉玩家已经达到弱点连击最大限制次数，连击次数重置为0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点连击状态受到攻击，会有随连击次数增大而产生更加夸张的受击效果，这个效果从连击的第二刀开始播放，每次可以调节特效的值来保证特效随着增大的连击次数变得越来越夸张</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>也是激起一些尘土</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>当弱点连击因为连击间隔太长或者总连击状态最大允许时长而恢复正常状态时，播放此特效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,20 +589,47 @@
       </rPr>
       <t>Boss招式设计与战斗挑战.xlsx】</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>云</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Clou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -727,62 +754,65 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1112,30 +1142,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1168,13 +1198,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1183,34 +1213,40 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1220,7 +1256,7 @@
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1230,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -1239,7 +1275,7 @@
     <col min="1" max="2" width="8.88671875" style="4"/>
     <col min="3" max="3" width="23.21875" style="4" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="83.44140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="39.77734375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -1268,351 +1304,351 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="6"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="18"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="18"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="18"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1628,7 +1664,7 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B32"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1"/>
   </hyperlinks>

--- a/DesignDocuments/美术/特效、Shader需求表.xlsx
+++ b/DesignDocuments/美术/特效、Shader需求表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F310C5-66A8-E245-B93F-FAF8CCCEA720}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="场景" sheetId="2" r:id="rId1"/>
@@ -370,86 +371,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>unDust</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>umpDust</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>irJump</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ash</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>allBuffer</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>符文光球普通状态</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -591,12 +512,32 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>RunDust</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpDust</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirJump</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallBuffer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +605,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -729,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,28 +709,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,7 +755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,6 +830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -914,6 +882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1089,53 +1074,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="27.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="18">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="18">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1167,14 +1152,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1182,35 +1167,35 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:11" ht="18">
+      <c r="A4" s="15"/>
+      <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1227,24 +1212,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="23.21875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="23.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="83.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1267,352 +1252,355 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:7" ht="31.25" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="15" t="s">
+    <row r="5" spans="1:7" ht="36">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="18">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="18">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="E11" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="36">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="6"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
+      <c r="E24" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="36">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
+      <c r="D25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
+      <c r="D26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="36">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13" t="s">
+      <c r="D27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="18"/>
+      <c r="B29" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="D29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="D30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="18"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="18"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="A36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="D36" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="18"/>
+      <c r="D39" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="18"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="18"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1630,7 +1618,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DesignDocuments/美术/特效、Shader需求表.xlsx
+++ b/DesignDocuments/美术/特效、Shader需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="场景" sheetId="2" r:id="rId1"/>
@@ -15,162 +15,158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>场景</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特效需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Shader需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>圣湖桥</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>参考</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>主角</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>主角普通攻击刀光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角地面近战蓄力刀光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>运动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>跑步尘埃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>起跳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">冲刺 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点由连击状态恢复到正常状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>符文光球受到连击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铃铛摇动产生音波</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>铃铛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑挥动刀光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀从插中状态脱离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物的受击效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮持续攻击怪物的受击效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀普通飞行拖尾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀蓄力攻击飞行拖尾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑刺效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>近战</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>远程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>水面倒影</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -203,47 +199,47 @@
       </rPr>
       <t>flecion Shader</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点受到连击最大次数的攻击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>美术素材需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>雾气</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,7 +255,7 @@
       </rPr>
       <t>Reflection</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -275,27 +271,27 @@
       </rPr>
       <t>og</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PlayerSlash_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>包含地面/空中的普通攻击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -311,11 +307,11 @@
       </rPr>
       <t>nifeFlying_Trail</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>KnifeFlying_Charged_Trail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,7 +327,7 @@
       </rPr>
       <t>nifeStabing</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -347,11 +343,11 @@
       </rPr>
       <t>nifePulledOut</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>KnifePenetrating</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -367,7 +363,7 @@
       </rPr>
       <t>Floating_Hitting</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -383,7 +379,7 @@
       </rPr>
       <t>unDust</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -399,7 +395,7 @@
       </rPr>
       <t>umpDust</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -415,7 +411,7 @@
       </rPr>
       <t>irJump</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -431,7 +427,7 @@
       </rPr>
       <t>ash</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -447,11 +443,11 @@
       </rPr>
       <t>allBuffer</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>符文光球普通状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -467,19 +463,19 @@
       </rPr>
       <t>eakPoint_Normal</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_RecoverToNormal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -495,7 +491,7 @@
       </rPr>
       <t>oss01_Slash</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -511,7 +507,7 @@
       </rPr>
       <t>oss01_Stab</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -527,51 +523,51 @@
       </rPr>
       <t>onster01_Ringing</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力攻击、怪物受击效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击怪物受击效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怪物受到近战蓄力攻击的效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>从插刀符上拔出的效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物时留下的效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮在空中时造成多次连续伤害时，在怪物身上的受击效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点以带符文的光球形式呈现</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点在连击状态下受到最后一次攻击时产生的一个额外特效，告诉玩家已经达到弱点连击最大限制次数，连击次数重置为0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点连击状态受到攻击，会有随连击次数增大而产生更加夸张的受击效果，这个效果从连击的第二刀开始播放，每次可以调节特效的值来保证特效随着增大的连击次数变得越来越夸张</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>也是激起一些尘土</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当弱点连击因为连击间隔太长或者总连击状态最大允许时长而恢复正常状态时，播放此特效</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,11 +585,11 @@
       </rPr>
       <t>Boss招式设计与战斗挑战.xlsx】</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>云</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -609,20 +605,137 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eath_Platformer</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elive_SpawnPoint</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡/复活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台跳跃死亡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角地面近战蓄力刀光</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角地面近战蓄力效果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayerCharg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e_Charging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Ground_Normal</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎平台</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台破碎效果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生点复活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生点激活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主角经过重生点时播放的特效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角在重生点处复活时播放的特效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -691,8 +804,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +823,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,66 +881,93 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1142,111 +1296,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1256,7 +1410,7 @@
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1264,409 +1418,569 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="23.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="4.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="39.77734375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="4" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="E21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="6" t="s">
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="6" t="s">
+      <c r="E35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="15"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="15"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B32"/>
+  <mergeCells count="14">
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A56:B60"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1"/>
+    <hyperlink ref="F34" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DesignDocuments/美术/特效、Shader需求表.xlsx
+++ b/DesignDocuments/美术/特效、Shader需求表.xlsx
@@ -10,163 +10,163 @@
     <sheet name="场景" sheetId="2" r:id="rId1"/>
     <sheet name="常规" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>场景</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>特效需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Shader需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>圣湖桥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参考</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>战斗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主角</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主角普通攻击刀光</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>运动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>跑步尘埃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>起跳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">冲刺 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点由连击状态恢复到正常状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>符文光球受到连击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>铃铛摇动产生音波</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>铃铛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑挥动刀光</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀从插中状态脱离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物的受击效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮持续攻击怪物的受击效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀普通飞行拖尾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀蓄力攻击飞行拖尾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑刺效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>近战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>水面倒影</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -199,47 +199,47 @@
       </rPr>
       <t>flecion Shader</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点受到连击最大次数的攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>美术素材需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雾气</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -255,7 +255,7 @@
       </rPr>
       <t>Reflection</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -271,27 +271,27 @@
       </rPr>
       <t>og</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PlayerSlash_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>包含地面/空中的普通攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -307,11 +307,11 @@
       </rPr>
       <t>nifeFlying_Trail</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>KnifeFlying_Charged_Trail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -327,7 +327,7 @@
       </rPr>
       <t>nifeStabing</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,11 +343,11 @@
       </rPr>
       <t>nifePulledOut</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>KnifePenetrating</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
       </rPr>
       <t>Floating_Hitting</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +379,7 @@
       </rPr>
       <t>unDust</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -395,7 +395,7 @@
       </rPr>
       <t>umpDust</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +411,7 @@
       </rPr>
       <t>irJump</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +427,7 @@
       </rPr>
       <t>ash</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,11 +443,11 @@
       </rPr>
       <t>allBuffer</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>符文光球普通状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,19 +463,19 @@
       </rPr>
       <t>eakPoint_Normal</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_RecoverToNormal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -491,7 +491,7 @@
       </rPr>
       <t>oss01_Slash</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,7 +507,7 @@
       </rPr>
       <t>oss01_Stab</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -523,51 +523,51 @@
       </rPr>
       <t>onster01_Ringing</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力攻击、怪物受击效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击怪物受击效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>怪物受到近战蓄力攻击的效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>从插刀符上拔出的效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物时留下的效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮在空中时造成多次连续伤害时，在怪物身上的受击效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点以带符文的光球形式呈现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点在连击状态下受到最后一次攻击时产生的一个额外特效，告诉玩家已经达到弱点连击最大限制次数，连击次数重置为0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点连击状态受到攻击，会有随连击次数增大而产生更加夸张的受击效果，这个效果从连击的第二刀开始播放，每次可以调节特效的值来保证特效随着增大的连击次数变得越来越夸张</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>也是激起一些尘土</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>当弱点连击因为连击间隔太长或者总连击状态最大允许时长而恢复正常状态时，播放此特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,11 +585,11 @@
       </rPr>
       <t>Boss招式设计与战斗挑战.xlsx】</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>云</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -605,7 +605,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -621,7 +621,7 @@
       </rPr>
       <t>eath_Platformer</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -637,27 +637,27 @@
       </rPr>
       <t>elive_SpawnPoint</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>死亡/复活</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>平台跳跃死亡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主角地面近战蓄力刀光</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主角地面近战蓄力效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -683,52 +683,94 @@
       </rPr>
       <t>_Ground_Normal</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>平台</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>破碎平台</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>平台破碎效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重生点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重生点复活</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重生点激活</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>在主角经过重生点时播放的特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主角在重生点处复活时播放的特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色处于子弹时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效在子弹时间逐渐接近0时逐渐缩小，让玩家能够预判子弹时间的持续时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力球</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaBall</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色触碰精力球以获取精力</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀插中插刀符</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -813,7 +855,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +871,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,93 +935,126 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1296,30 +1383,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1352,7 +1439,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1367,7 +1454,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
@@ -1376,7 +1463,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
@@ -1385,22 +1472,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1410,7 +1497,7 @@
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1418,13 +1505,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1533,7 @@
       <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1466,13 +1553,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1484,9 +1571,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>76</v>
       </c>
@@ -1495,22 +1582,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1518,9 +1605,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="11" t="s">
         <v>75</v>
       </c>
@@ -1532,26 +1619,26 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="14"/>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -1562,18 +1649,21 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="F10" s="38" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1585,9 +1675,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1599,8 +1689,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>29</v>
@@ -1613,59 +1703,61 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15"/>
       <c r="D14" s="6"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="15"/>
       <c r="D15" s="6"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="30" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="39"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1675,19 +1767,21 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
@@ -1697,290 +1791,338 @@
       <c r="F23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="19"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="23" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="19" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="F27" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="11" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="6" t="s">
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="6" t="s">
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="6" t="s">
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="6" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F37" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="6" t="s">
+    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="15"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="15"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="15"/>
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="15"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="6" t="s">
+      <c r="C44" s="39"/>
+      <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="30"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B51" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="23" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E59" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F59" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23" t="s">
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F60" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A56:B60"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:B43"/>
+  <mergeCells count="16">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:B63"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A32:A43"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1"/>
+    <hyperlink ref="F37" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DesignDocuments/美术/特效、Shader需求表.xlsx
+++ b/DesignDocuments/美术/特效、Shader需求表.xlsx
@@ -15,158 +15,158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>场景</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>特效需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Shader需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>圣湖桥</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参考</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>战斗</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>主角</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>主角普通攻击刀光</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>运动</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>跑步尘埃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>起跳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">冲刺 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弱点由连击状态恢复到正常状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>符文光球受到连击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>铃铛摇动产生音波</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>铃铛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑挥动刀光</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀从插中状态脱离</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物的受击效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮持续攻击怪物的受击效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀普通飞行拖尾</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀蓄力攻击飞行拖尾</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>双刃剑刺效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>近战</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>远程</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>水面倒影</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -199,47 +199,47 @@
       </rPr>
       <t>flecion Shader</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弱点受到连击最大次数的攻击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>美术素材需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雾气</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -255,7 +255,7 @@
       </rPr>
       <t>Reflection</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -271,27 +271,27 @@
       </rPr>
       <t>og</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PlayerSlash_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>包含地面/空中的普通攻击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>MonsterHitten_PlayerCharge_Ground_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -307,11 +307,11 @@
       </rPr>
       <t>nifeFlying_Trail</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>KnifeFlying_Charged_Trail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -327,7 +327,7 @@
       </rPr>
       <t>nifeStabing</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,11 +343,11 @@
       </rPr>
       <t>nifePulledOut</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>KnifePenetrating</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
       </rPr>
       <t>Floating_Hitting</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +379,7 @@
       </rPr>
       <t>unDust</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -395,7 +395,7 @@
       </rPr>
       <t>umpDust</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +411,7 @@
       </rPr>
       <t>irJump</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +427,7 @@
       </rPr>
       <t>ash</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,11 +443,11 @@
       </rPr>
       <t>allBuffer</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>符文光球普通状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,19 +463,19 @@
       </rPr>
       <t>eakPoint_Normal</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>WeakPoint_Hitting_Combo_RecoverToNormal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -491,7 +491,7 @@
       </rPr>
       <t>oss01_Slash</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,7 +507,7 @@
       </rPr>
       <t>oss01_Stab</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -523,51 +523,51 @@
       </rPr>
       <t>onster01_Ringing</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力攻击、怪物受击效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击怪物受击效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>怪物受到近战蓄力攻击的效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>从插刀符上拔出的效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀穿透怪物时留下的效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮在空中时造成多次连续伤害时，在怪物身上的受击效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弱点以带符文的光球形式呈现</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弱点在连击状态下受到最后一次攻击时产生的一个额外特效，告诉玩家已经达到弱点连击最大限制次数，连击次数重置为0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弱点连击状态受到攻击，会有随连击次数增大而产生更加夸张的受击效果，这个效果从连击的第二刀开始播放，每次可以调节特效的值来保证特效随着增大的连击次数变得越来越夸张</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>也是激起一些尘土</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>当弱点连击因为连击间隔太长或者总连击状态最大允许时长而恢复正常状态时，播放此特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,11 +585,11 @@
       </rPr>
       <t>Boss招式设计与战斗挑战.xlsx】</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>云</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -605,7 +605,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -621,7 +621,113 @@
       </rPr>
       <t>eath_Platformer</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡/复活</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台跳跃死亡</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角地面近战蓄力刀光</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角地面近战蓄力效果</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayerCharg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e_Charging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Ground_Normal</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎平台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台破碎效果</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生点复活</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生点激活</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主角经过重生点时播放的特效</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角在重生点处复活时播放的特效</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色处于子弹时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效在子弹时间逐渐接近0时逐渐缩小，让玩家能够预判子弹时间的持续时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力球</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaBall</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色触碰精力球以获取精力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀插中插刀符</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -637,126 +743,31 @@
       </rPr>
       <t>elive_SpawnPoint</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡/复活</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台跳跃死亡</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角地面近战蓄力刀光</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角地面近战蓄力效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PlayerCharg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e_Charging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_Ground_Normal</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎平台</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台破碎效果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生点复活</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生点激活</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在主角经过重生点时播放的特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角在重生点处复活时播放的特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色处于子弹时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效在子弹时间逐渐接近0时逐渐缩小，让玩家能够预判子弹时间的持续时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力球</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaBall</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色触碰精力球以获取精力</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀插中插刀符</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate_SpawnPoint</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -935,84 +946,93 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1020,40 +1040,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1383,30 +1397,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1439,7 +1453,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1454,7 +1468,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
@@ -1463,7 +1477,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
@@ -1472,22 +1486,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="33"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="33"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1497,7 +1511,7 @@
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1508,10 +1522,10 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>6</v>
@@ -1553,10 +1567,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="20"/>
@@ -1571,8 +1585,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="20"/>
       <c r="D3" s="11" t="s">
         <v>76</v>
@@ -1582,31 +1596,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="20"/>
       <c r="D4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="20"/>
       <c r="D5" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="11" t="s">
         <v>75</v>
@@ -1619,15 +1633,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1637,8 +1651,8 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="14"/>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -1649,21 +1663,21 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>111</v>
+      <c r="F10" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1675,8 +1689,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="20"/>
       <c r="D12" s="6" t="s">
         <v>28</v>
@@ -1689,8 +1703,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>29</v>
@@ -1703,37 +1717,37 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="15"/>
       <c r="D14" s="6"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="15"/>
       <c r="D15" s="6"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="36"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="36"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1743,9 +1757,9 @@
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1755,8 +1769,8 @@
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="20"/>
       <c r="D21" s="6" t="s">
         <v>32</v>
@@ -1767,9 +1781,9 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1779,9 +1793,9 @@
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
@@ -1794,19 +1808,19 @@
       <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32" t="s">
-        <v>91</v>
+      <c r="A24" s="36"/>
+      <c r="B24" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="C24" s="19"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="22"/>
       <c r="D25" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>89</v>
@@ -1814,55 +1828,55 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="33" t="s">
-        <v>105</v>
+      <c r="A27" s="36"/>
+      <c r="B27" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="D28" s="17"/>
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="D29" s="17"/>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="36"/>
       <c r="D30" s="17"/>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="22"/>
@@ -1877,8 +1891,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="22"/>
       <c r="D33" s="6" t="s">
         <v>21</v>
@@ -1891,8 +1905,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="22"/>
       <c r="D34" s="6" t="s">
         <v>41</v>
@@ -1905,8 +1919,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="22"/>
       <c r="D35" s="6" t="s">
         <v>20</v>
@@ -1919,13 +1933,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="22"/>
@@ -1935,13 +1949,13 @@
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="37" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="20"/>
       <c r="D38" s="6" t="s">
         <v>33</v>
@@ -1949,37 +1963,37 @@
       <c r="E38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="34"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="15"/>
-      <c r="F39" s="34"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="15"/>
-      <c r="F40" s="34"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="36"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="36"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="36"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="39"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
@@ -1989,126 +2003,124 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="36"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="36"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="36"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="36"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="19" t="s">
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="B59" s="35"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>90</v>
+      <c r="E59" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="20"/>
       <c r="D60" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="20"/>
       <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="36" t="s">
+      <c r="F64" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>110</v>
       </c>
       <c r="G64" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A59:B63"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="A32:A43"/>
@@ -2119,8 +2131,14 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:B63"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="B44:B46"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F37" r:id="rId1"/>
   </hyperlinks>
